--- a/data/Sorties_Privation.xlsx
+++ b/data/Sorties_Privation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\58948\Documents\GitHub\PB_GainEmploi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\58948\Documents\GitHub\PB_GainEmploi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD4491-5F92-4FC4-A3AA-313FF38B9A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE7E7D-4A2E-456E-A360-DB6EA4BB7A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="0" windowWidth="14430" windowHeight="15630" xr2:uid="{CBF86149-1754-4766-B63C-9515A2A4B6B2}"/>
+    <workbookView xWindow="0" yWindow="10690" windowWidth="19420" windowHeight="11500" xr2:uid="{CBF86149-1754-4766-B63C-9515A2A4B6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorties_Privation" sheetId="1" r:id="rId1"/>
@@ -107,12 +107,6 @@
     <t>tranche_sal</t>
   </si>
   <si>
-    <t>moins de 0,3 smic</t>
-  </si>
-  <si>
-    <t>1,8 smic et plus</t>
-  </si>
-  <si>
     <t>[0,3 à 0,6[</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>[1,5 à 1,8[</t>
+  </si>
+  <si>
+    <t>&lt; 0,3 smic</t>
+  </si>
+  <si>
+    <t>1,8 et +</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,12 +686,12 @@
         <v>3.7581640229999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>848</v>
@@ -753,7 +753,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>761</v>
@@ -815,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>1038</v>
@@ -877,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>2003</v>
@@ -939,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>2587</v>
@@ -1001,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>2020</v>
@@ -1058,12 +1058,12 @@
         <v>3.2088195389999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5">
         <v>4301</v>
